--- a/GMfiles/MSA/P0/POE-0.001-in-50-years/GMR_2/MultiSupport_Excitation.xlsx
+++ b/GMfiles/MSA/P0/POE-0.001-in-50-years/GMR_2/MultiSupport_Excitation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\PhD Work Space\Site Response\EzBridge Workspace\Multi-Support Excitation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volkan\Desktop\Workspace\stable\GMfiles\MSA\P0\POE-0.001-in-50-years\GMR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEFC088-4269-400D-8C1D-2C39DB8F5486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF7638-D2BA-4040-8DFB-51AAAE973652}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20820" yWindow="780" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bent1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="8">
   <si>
     <t>Layer ID</t>
   </si>
@@ -380,8 +380,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E0D0C-AB15-4C93-A4B1-A5044386379A}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,84 +1161,389 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E0D0C-AB15-4C93-A4B1-A5044386379A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D29E-9694-4A3F-A7D1-14D9160AAE7C}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D29E-9694-4A3F-A7D1-14D9160AAE7C}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
